--- a/benchmark/baselines/openml_100.xlsx
+++ b/benchmark/baselines/openml_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\autem\benchmark\baselines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFEC4F-5612-4363-90EE-C3C7BDE017B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F5455-4124-4498-860B-F899E9A75F20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="0" windowWidth="15360" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openml_100" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
   <si>
     <t>kr-vs-kp</t>
   </si>
@@ -1202,7 +1202,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -3709,6 +3709,9 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>

--- a/benchmark/baselines/openml_100.xlsx
+++ b/benchmark/baselines/openml_100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\autem\benchmark\baselines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F5455-4124-4498-860B-F899E9A75F20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0F5B2-E88F-40F9-BED2-765887B6EAAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="0" windowWidth="15360" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openml_100" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="109">
   <si>
     <t>kr-vs-kp</t>
   </si>
@@ -312,9 +312,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -345,13 +342,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Run_Light</t>
-  </si>
-  <si>
-    <t>Run_Test</t>
-  </si>
-  <si>
     <t>Run</t>
+  </si>
+  <si>
+    <t>Tune</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1196,2835 +1199,3045 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1779</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>699</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>37</v>
       </c>
-      <c r="I2">
+      <c r="K3">
         <v>3196</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="I4">
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="J4">
         <v>17</v>
       </c>
-      <c r="I3">
+      <c r="K4">
         <v>20000</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="K5">
         <v>625</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="J6">
         <v>217</v>
       </c>
-      <c r="I5">
+      <c r="K6">
         <v>2000</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="H7">
         <v>1778</v>
       </c>
-      <c r="G6">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="J7">
         <v>77</v>
       </c>
-      <c r="I6">
+      <c r="K7">
         <v>2000</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1779</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>699</v>
-      </c>
-      <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>65</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2000</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>2000</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>241</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>2000</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>22</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>22</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>48</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>2000</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>23</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1473</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1788</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>23</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>8124</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2480</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>2480</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>28</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>28</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>65</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>5620</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>29</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>29</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>690</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>37</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>31</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>31</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <v>21</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1000</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>17</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>10992</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>36</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>20</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2310</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>37</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>37</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>768</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>38</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>3021</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
         <v>30</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>3772</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>3772</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>6064</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>42</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>41</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>19</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>36</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>683</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>121</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2337</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>44</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>43</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
         <v>58</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>4601</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>46</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>45</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>62</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>3190</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>50</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>145804</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <v>10</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>958</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>54</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>53</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>19</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>846</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>60</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>58</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>3</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>41</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>5000</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>151</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>219</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
         <v>9</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>45312</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>182</v>
       </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28">
+      <c r="H28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28">
         <v>6</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>37</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>6430</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>188</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>2125</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>20</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>736</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>95</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>300</v>
       </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30">
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30">
         <v>26</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>618</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>7797</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>307</v>
       </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31">
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31">
         <v>11</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>13</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>990</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>312</v>
       </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
         <v>300</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>2407</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>333</v>
       </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>556</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="F34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>334</v>
       </c>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>601</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>335</v>
       </c>
-      <c r="F35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
         <v>7</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>554</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36">
+        <v>104</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>375</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>4544</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>9</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>15</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>9961</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>377</v>
       </c>
-      <c r="F37" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37">
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>62</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>600</v>
       </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>451</v>
       </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
         <v>6</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>500</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>32</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="F39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>458</v>
       </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39">
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
         <v>4</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>71</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>841</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>469</v>
       </c>
-      <c r="F40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40">
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40">
         <v>6</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>797</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>470</v>
       </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>672</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>666</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>554</v>
       </c>
-      <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42">
+      <c r="H42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42">
         <v>10</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>785</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>70000</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>1038</v>
       </c>
-      <c r="F43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
         <v>971</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>3468</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>1046</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>3899</v>
       </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
         <v>6</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>15545</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>1049</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>3902</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
         <v>38</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>1458</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>1050</v>
       </c>
-      <c r="F46" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
         <v>38</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>1563</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>1053</v>
       </c>
-      <c r="F47" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
         <v>22</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>10885</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>5</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>1063</v>
       </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
+      <c r="H48" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
         <v>22</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>522</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="F49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>1067</v>
       </c>
-      <c r="F49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
+      <c r="H49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
         <v>22</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>2109</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>1068</v>
       </c>
-      <c r="F50" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
         <v>22</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>1109</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>1112</v>
       </c>
-      <c r="F51" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
         <v>231</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>50000</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>50000</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>8024152</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>1114</v>
       </c>
-      <c r="F52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
+      <c r="H52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
         <v>231</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>50000</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>50000</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>8024152</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="F53" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>1120</v>
       </c>
-      <c r="F53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
         <v>12</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>19020</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>93</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>1459</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54">
+      <c r="H54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54">
         <v>10</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>8</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>10218</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>1461</v>
       </c>
-      <c r="F55" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
+      <c r="H55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
         <v>17</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>45211</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>1462</v>
       </c>
-      <c r="F56" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
+      <c r="H56" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>1372</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>1464</v>
       </c>
-      <c r="F57" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
+      <c r="H57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
         <v>5</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>748</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58">
+        <v>104</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>1466</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>9979</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>10</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>36</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>2126</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="F59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>1467</v>
       </c>
-      <c r="F59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
+      <c r="H59" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
         <v>21</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>540</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>1468</v>
       </c>
-      <c r="F60" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60">
+      <c r="H60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60">
         <v>9</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>857</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>1080</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61">
+        <v>104</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>1471</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>9983</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
         <v>15</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>14980</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>1475</v>
       </c>
-      <c r="F62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62">
+      <c r="H62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62">
         <v>6</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>52</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>6118</v>
       </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="F63" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>1476</v>
       </c>
-      <c r="F63" t="s">
-        <v>95</v>
-      </c>
-      <c r="G63">
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63">
         <v>6</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>129</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>13910</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="F64" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>1478</v>
       </c>
-      <c r="F64" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64">
+      <c r="H64" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64">
         <v>6</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>562</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>10299</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65">
+        <v>104</v>
+      </c>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65">
         <v>1479</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>145847</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
         <v>101</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>1212</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>1480</v>
       </c>
-      <c r="F66" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66">
+      <c r="H66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
         <v>11</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>583</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>1485</v>
       </c>
-      <c r="F67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
         <v>501</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>2600</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="F68" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>1486</v>
       </c>
-      <c r="F68" t="s">
-        <v>95</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
         <v>119</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>34465</v>
       </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>1487</v>
       </c>
-      <c r="F69" t="s">
-        <v>95</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
         <v>73</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>2534</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>1489</v>
       </c>
-      <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
+      <c r="H70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
         <v>6</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>5404</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71">
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>1491</v>
       </c>
-      <c r="F71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71">
+      <c r="H71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71">
         <v>100</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>65</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>1600</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72">
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>1492</v>
       </c>
-      <c r="F72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72">
+      <c r="H72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72">
         <v>100</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>65</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>1600</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73">
+      <c r="F73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>1493</v>
       </c>
-      <c r="F73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73">
+      <c r="H73" t="s">
+        <v>94</v>
+      </c>
+      <c r="I73">
         <v>100</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>65</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>1599</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74">
+      <c r="F74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74">
         <v>1494</v>
       </c>
-      <c r="F74" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
         <v>42</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>1055</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75">
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>1497</v>
       </c>
-      <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75">
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75">
         <v>4</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>25</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>5456</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
         <v>1501</v>
       </c>
-      <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76">
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76">
         <v>10</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>257</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>1593</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77">
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77">
         <v>1504</v>
       </c>
-      <c r="F77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
         <v>34</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>1941</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D78" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78">
+      <c r="F78" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>1510</v>
       </c>
-      <c r="F78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78">
+      <c r="H78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
         <v>31</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>569</v>
       </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D79" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79">
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79">
         <v>1515</v>
       </c>
-      <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79">
+      <c r="H79" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79">
         <v>20</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>1301</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>571</v>
       </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80">
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>1590</v>
       </c>
-      <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80">
+      <c r="H80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
         <v>15</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>48842</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>3620</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>6465</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81">
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>4134</v>
       </c>
-      <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-      <c r="H81">
+      <c r="H81" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
         <v>1777</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>3751</v>
       </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
         <v>4135</v>
       </c>
-      <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82">
+      <c r="H82" t="s">
+        <v>94</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
         <v>10</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>32769</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83">
+        <v>104</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83">
         <v>4534</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>34537</v>
       </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83">
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
         <v>31</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>11055</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84">
+      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84">
         <v>4538</v>
       </c>
-      <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84">
+      <c r="H84" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84">
         <v>5</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>33</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>9873</v>
       </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85">
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
         <v>6332</v>
       </c>
-      <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="H85">
+      <c r="H85" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
         <v>40</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>540</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>263</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86">
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86">
         <v>23380</v>
       </c>
-      <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86">
+      <c r="H86" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86">
         <v>6</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>35</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>2796</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>2795</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>68100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87">
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87">
         <v>23381</v>
       </c>
-      <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87">
+      <c r="H87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
         <v>13</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>500</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>401</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>835</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88">
+      <c r="F88" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>23512</v>
       </c>
-      <c r="F88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
+      <c r="H88" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
         <v>29</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>98050</v>
       </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D89" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89">
+      <c r="F89" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89">
         <v>40496</v>
       </c>
-      <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89">
+      <c r="H89" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89">
         <v>10</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>8</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>500</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90">
+      <c r="F90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90">
         <v>40499</v>
       </c>
-      <c r="F90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90">
+      <c r="H90" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90">
         <v>11</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>41</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>5500</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D91" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91">
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91">
         <v>40536</v>
       </c>
-      <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
+      <c r="H91" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
         <v>123</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>8378</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>7330</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>18372</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92">
         <v>40668</v>
       </c>
-      <c r="F92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92">
+      <c r="H92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92">
         <v>3</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>43</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>67557</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93">
+      <c r="F93" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93">
         <v>40981</v>
       </c>
-      <c r="F93" t="s">
-        <v>95</v>
-      </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-      <c r="H93">
+      <c r="H93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
         <v>15</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>690</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
         <v>0</v>
       </c>
     </row>
